--- a/uploads/excel_format/centre creation.xlsx
+++ b/uploads/excel_format/centre creation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="360" windowWidth="28515" windowHeight="12315"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>s.no</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Mobile-no</t>
   </si>
   <si>
-    <t>Bandham</t>
-  </si>
-  <si>
-    <t>Kottaikul Street</t>
-  </si>
-  <si>
     <t>Vandavasi</t>
   </si>
   <si>
@@ -73,13 +67,16 @@
   </si>
   <si>
     <t>Leela</t>
+  </si>
+  <si>
+    <t>vasanth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +114,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -195,6 +197,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -229,6 +232,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -404,23 +408,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,12 +456,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>12373</v>
@@ -463,13 +470,13 @@
         <v>6785430986</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
       <c r="H2" s="1">
         <v>109876543217</v>
@@ -478,12 +485,12 @@
         <v>6767443234</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>112373</v>
@@ -492,13 +499,13 @@
         <v>6785430861</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1">
         <v>109876543217</v>
@@ -507,12 +514,12 @@
         <v>6767443231</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>898</v>
@@ -521,13 +528,13 @@
         <v>7657890123</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1">
         <v>678765432111</v>
@@ -536,12 +543,12 @@
         <v>9876543210</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>343</v>
@@ -550,13 +557,13 @@
         <v>9876548901</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1">
         <v>876543890125</v>
@@ -567,28 +574,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
